--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2780.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2780.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168888527484919</v>
+        <v>1.36823296546936</v>
       </c>
       <c r="B1">
-        <v>2.431625203348568</v>
+        <v>1.90549623966217</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.385767698287964</v>
       </c>
       <c r="D1">
-        <v>2.3674018760291</v>
+        <v>3.752682209014893</v>
       </c>
       <c r="E1">
-        <v>1.231273599312735</v>
+        <v>0.9806156158447266</v>
       </c>
     </row>
   </sheetData>
